--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Arf1-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Arf1-Insr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H2">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I2">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J2">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N2">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O2">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P2">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q2">
-        <v>1022.372153380412</v>
+        <v>1191.391003014954</v>
       </c>
       <c r="R2">
-        <v>4089.48861352165</v>
+        <v>4765.564012059816</v>
       </c>
       <c r="S2">
-        <v>0.04145122955571804</v>
+        <v>0.04059861760926965</v>
       </c>
       <c r="T2">
-        <v>0.02426902015530919</v>
+        <v>0.0232426161459696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H3">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I3">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J3">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.766468</v>
       </c>
       <c r="O3">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P3">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q3">
-        <v>180.6971405181567</v>
+        <v>269.4486479051361</v>
       </c>
       <c r="R3">
-        <v>1084.18284310894</v>
+        <v>1616.691887430816</v>
       </c>
       <c r="S3">
-        <v>0.007326215436242392</v>
+        <v>0.009181908033510679</v>
       </c>
       <c r="T3">
-        <v>0.006434069820967847</v>
+        <v>0.007884932165587687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H4">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I4">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J4">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N4">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O4">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P4">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q4">
-        <v>418.2506168954699</v>
+        <v>578.8271689163601</v>
       </c>
       <c r="R4">
-        <v>2509.503701372819</v>
+        <v>3472.96301349816</v>
       </c>
       <c r="S4">
-        <v>0.01695762377274366</v>
+        <v>0.01972449249089761</v>
       </c>
       <c r="T4">
-        <v>0.01489261902015504</v>
+        <v>0.01693834056317663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H5">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I5">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J5">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N5">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O5">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P5">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q5">
-        <v>485.3326219933937</v>
+        <v>611.4588198195121</v>
       </c>
       <c r="R5">
-        <v>1941.330487973575</v>
+        <v>2445.835279278048</v>
       </c>
       <c r="S5">
-        <v>0.01967740793663926</v>
+        <v>0.0208364699303979</v>
       </c>
       <c r="T5">
-        <v>0.01152080203499447</v>
+        <v>0.01192883159447035</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H6">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I6">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J6">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N6">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O6">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P6">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q6">
-        <v>500.2445650379957</v>
+        <v>1270.871307642832</v>
       </c>
       <c r="R6">
-        <v>3001.467390227974</v>
+        <v>7625.227845856993</v>
       </c>
       <c r="S6">
-        <v>0.02028200027830254</v>
+        <v>0.04330704035788007</v>
       </c>
       <c r="T6">
-        <v>0.01781217151408518</v>
+        <v>0.03718977300447773</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H7">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I7">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J7">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N7">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O7">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P7">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q7">
-        <v>539.2528744396041</v>
+        <v>427.4498354298201</v>
       </c>
       <c r="R7">
-        <v>3235.517246637624</v>
+        <v>2564.699012578921</v>
       </c>
       <c r="S7">
-        <v>0.02186355977426515</v>
+        <v>0.01456605964947234</v>
       </c>
       <c r="T7">
-        <v>0.01920113752410704</v>
+        <v>0.01250855397775966</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>238.295841</v>
       </c>
       <c r="I8">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J8">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N8">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O8">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P8">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q8">
-        <v>1612.890704898305</v>
+        <v>1260.449686568285</v>
       </c>
       <c r="R8">
-        <v>9677.34422938983</v>
+        <v>7562.698119409712</v>
       </c>
       <c r="S8">
-        <v>0.06539331361478025</v>
+        <v>0.04295190639446795</v>
       </c>
       <c r="T8">
-        <v>0.05743008095838133</v>
+        <v>0.03688480292625641</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>238.295841</v>
       </c>
       <c r="I9">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J9">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>10.766468</v>
       </c>
       <c r="O9">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P9">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q9">
         <v>285.0671718510653</v>
@@ -1013,10 +1013,10 @@
         <v>2565.604546659588</v>
       </c>
       <c r="S9">
-        <v>0.01155781164434855</v>
+        <v>0.009714135051926434</v>
       </c>
       <c r="T9">
-        <v>0.01522554880029741</v>
+        <v>0.01251297044997382</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>238.295841</v>
       </c>
       <c r="I10">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J10">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N10">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O10">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P10">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q10">
-        <v>659.830698711996</v>
+        <v>612.3787419844033</v>
       </c>
       <c r="R10">
-        <v>5938.476288407964</v>
+        <v>5511.408677859629</v>
       </c>
       <c r="S10">
-        <v>0.02675228748140979</v>
+        <v>0.0208678177986529</v>
       </c>
       <c r="T10">
-        <v>0.03524181489555226</v>
+        <v>0.02688025089976471</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>238.295841</v>
       </c>
       <c r="I11">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J11">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N11">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O11">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P11">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q11">
-        <v>765.6590334633274</v>
+        <v>646.901878426594</v>
       </c>
       <c r="R11">
-        <v>4593.954200779966</v>
+        <v>3881.411270559564</v>
       </c>
       <c r="S11">
-        <v>0.03104300939003416</v>
+        <v>0.02204425073422338</v>
       </c>
       <c r="T11">
-        <v>0.0272627650123927</v>
+        <v>0.01893042503215961</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>238.295841</v>
       </c>
       <c r="I12">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J12">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N12">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O12">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P12">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q12">
-        <v>789.1840622398715</v>
+        <v>1344.537047311351</v>
       </c>
       <c r="R12">
-        <v>7102.656560158845</v>
+        <v>12100.83342580216</v>
       </c>
       <c r="S12">
-        <v>0.03199681213681003</v>
+        <v>0.04581732219494095</v>
       </c>
       <c r="T12">
-        <v>0.04215062847828652</v>
+        <v>0.05901820343835255</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>238.295841</v>
       </c>
       <c r="I13">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J13">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N13">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O13">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P13">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q13">
-        <v>850.7234336318081</v>
+        <v>452.2268589637983</v>
       </c>
       <c r="R13">
-        <v>7656.510902686275</v>
+        <v>4070.041730674185</v>
       </c>
       <c r="S13">
-        <v>0.03449187482200487</v>
+        <v>0.01541037767890708</v>
       </c>
       <c r="T13">
-        <v>0.04543747029940327</v>
+        <v>0.01985041380301377</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H14">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I14">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J14">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N14">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O14">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P14">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q14">
-        <v>1691.167890508016</v>
+        <v>1576.989126923947</v>
       </c>
       <c r="R14">
-        <v>10147.0073430481</v>
+        <v>9461.934761543684</v>
       </c>
       <c r="S14">
-        <v>0.06856699707139176</v>
+        <v>0.05373851101438754</v>
       </c>
       <c r="T14">
-        <v>0.06021729096158078</v>
+        <v>0.04614776280503896</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H15">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I15">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J15">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>10.766468</v>
       </c>
       <c r="O15">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P15">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q15">
-        <v>298.9021179230177</v>
+        <v>356.6567037483538</v>
       </c>
       <c r="R15">
-        <v>2690.11906130716</v>
+        <v>3209.910333735184</v>
       </c>
       <c r="S15">
-        <v>0.01211873803854201</v>
+        <v>0.01215366667753847</v>
       </c>
       <c r="T15">
-        <v>0.01596447866444201</v>
+        <v>0.01565537962792799</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H16">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I16">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J16">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N16">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O16">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P16">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q16">
-        <v>691.8537551517198</v>
+        <v>766.1667323652044</v>
       </c>
       <c r="R16">
-        <v>6226.683796365479</v>
+        <v>6895.500591286839</v>
       </c>
       <c r="S16">
-        <v>0.02805063569949237</v>
+        <v>0.02610839775818598</v>
       </c>
       <c r="T16">
-        <v>0.03695217882624165</v>
+        <v>0.0336307461135777</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H17">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I17">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J17">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N17">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O17">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P17">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q17">
-        <v>802.8181751795915</v>
+        <v>809.3597383033253</v>
       </c>
       <c r="R17">
-        <v>4816.90905107755</v>
+        <v>4856.158429819952</v>
       </c>
       <c r="S17">
-        <v>0.03254959591851251</v>
+        <v>0.02758027082675797</v>
       </c>
       <c r="T17">
-        <v>0.02858588784435394</v>
+        <v>0.02368446337992509</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H18">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I18">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J18">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N18">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O18">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P18">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q18">
-        <v>827.4849261065719</v>
+        <v>1682.193527398334</v>
       </c>
       <c r="R18">
-        <v>7447.364334959148</v>
+        <v>15139.74174658501</v>
       </c>
       <c r="S18">
-        <v>0.03354968884131685</v>
+        <v>0.05732352484684344</v>
       </c>
       <c r="T18">
-        <v>0.04419629255145684</v>
+        <v>0.07383957178510139</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H19">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I19">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J19">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N19">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O19">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P19">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q19">
-        <v>892.0109405376942</v>
+        <v>565.7955625587311</v>
       </c>
       <c r="R19">
-        <v>8028.098464839249</v>
+        <v>5092.16006302858</v>
       </c>
       <c r="S19">
-        <v>0.03616584248718479</v>
+        <v>0.0192804189650702</v>
       </c>
       <c r="T19">
-        <v>0.04764265214183096</v>
+        <v>0.02483549090921834</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H20">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I20">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J20">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N20">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O20">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P20">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q20">
-        <v>1299.899533617527</v>
+        <v>1201.191921467659</v>
       </c>
       <c r="R20">
-        <v>5199.598134470109</v>
+        <v>4804.767685870635</v>
       </c>
       <c r="S20">
-        <v>0.0527033466132581</v>
+        <v>0.04093260010491889</v>
       </c>
       <c r="T20">
-        <v>0.03085695152878683</v>
+        <v>0.02343382036431412</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H21">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I21">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J21">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>10.766468</v>
       </c>
       <c r="O21">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P21">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q21">
-        <v>229.7481674446327</v>
+        <v>271.66525372021</v>
       </c>
       <c r="R21">
-        <v>1378.489004667796</v>
+        <v>1629.99152232126</v>
       </c>
       <c r="S21">
-        <v>0.009314948570600879</v>
+        <v>0.009257442540359345</v>
       </c>
       <c r="T21">
-        <v>0.008180626136857135</v>
+        <v>0.007949797165377401</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H22">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I22">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J22">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N22">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O22">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P22">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q22">
-        <v>531.7865711032979</v>
+        <v>583.588861648975</v>
       </c>
       <c r="R22">
-        <v>3190.719426619788</v>
+        <v>3501.53316989385</v>
       </c>
       <c r="S22">
-        <v>0.02156084470861851</v>
+        <v>0.01988675504108899</v>
       </c>
       <c r="T22">
-        <v>0.01893528540916728</v>
+        <v>0.01707768297399199</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H23">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I23">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J23">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N23">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O23">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P23">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q23">
-        <v>617.0782790714762</v>
+        <v>616.488955194945</v>
       </c>
       <c r="R23">
-        <v>2468.313116285905</v>
+        <v>2465.95582077978</v>
       </c>
       <c r="S23">
-        <v>0.02501892614647701</v>
+        <v>0.02100788010733667</v>
       </c>
       <c r="T23">
-        <v>0.01464817399679002</v>
+        <v>0.0120269635304994</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H24">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I24">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J24">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N24">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O24">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P24">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q24">
-        <v>636.0381340958107</v>
+        <v>1281.32606684327</v>
       </c>
       <c r="R24">
-        <v>3816.228804574864</v>
+        <v>7687.95640105962</v>
       </c>
       <c r="S24">
-        <v>0.02578763771628871</v>
+        <v>0.04366330355770402</v>
       </c>
       <c r="T24">
-        <v>0.02264736316156235</v>
+        <v>0.03749571281061113</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H25">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I25">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J25">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N25">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O25">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P25">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q25">
-        <v>685.635419224029</v>
+        <v>430.9662301055126</v>
       </c>
       <c r="R25">
-        <v>4113.812515344174</v>
+        <v>2585.797380633075</v>
       </c>
       <c r="S25">
-        <v>0.02779851843559681</v>
+        <v>0.01468588661009269</v>
       </c>
       <c r="T25">
-        <v>0.02441337005315089</v>
+        <v>0.01261145497095756</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H26">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I26">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J26">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N26">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O26">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P26">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q26">
-        <v>899.8612705679084</v>
+        <v>1529.743675497401</v>
       </c>
       <c r="R26">
-        <v>5399.16762340745</v>
+        <v>9178.462052984405</v>
       </c>
       <c r="S26">
-        <v>0.03648412759608043</v>
+        <v>0.05212854416774382</v>
       </c>
       <c r="T26">
-        <v>0.03204129421979978</v>
+        <v>0.04476520927386652</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H27">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I27">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J27">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>10.766468</v>
       </c>
       <c r="O27">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P27">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q27">
-        <v>159.0441972788689</v>
+        <v>345.9715273668506</v>
       </c>
       <c r="R27">
-        <v>1431.39777550982</v>
+        <v>3113.743746301656</v>
       </c>
       <c r="S27">
-        <v>0.006448314842216054</v>
+        <v>0.01178955163142644</v>
       </c>
       <c r="T27">
-        <v>0.008494612590251846</v>
+        <v>0.01518635579945166</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H28">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I28">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J28">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N28">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O28">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P28">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q28">
-        <v>368.13163415194</v>
+        <v>743.2129322910066</v>
       </c>
       <c r="R28">
-        <v>3313.184707367459</v>
+        <v>6688.916390619059</v>
       </c>
       <c r="S28">
-        <v>0.01492559125705744</v>
+        <v>0.02532620908164426</v>
       </c>
       <c r="T28">
-        <v>0.01966205411979867</v>
+        <v>0.03262319333162109</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H29">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I29">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J29">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N29">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O29">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P29">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q29">
-        <v>427.1752007632459</v>
+        <v>785.111907072428</v>
       </c>
       <c r="R29">
-        <v>2563.051204579475</v>
+        <v>4710.671442434568</v>
       </c>
       <c r="S29">
-        <v>0.01731946361097602</v>
+        <v>0.02675398589972218</v>
       </c>
       <c r="T29">
-        <v>0.01521039602295484</v>
+        <v>0.02297489402077374</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H30">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I30">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J30">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N30">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O30">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P30">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q30">
-        <v>440.3002452691861</v>
+        <v>1631.796228373341</v>
       </c>
       <c r="R30">
-        <v>3962.702207422674</v>
+        <v>14686.16605536007</v>
       </c>
       <c r="S30">
-        <v>0.01785160763597306</v>
+        <v>0.05560615358377538</v>
       </c>
       <c r="T30">
-        <v>0.02351660777913547</v>
+        <v>0.07162739172464989</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H31">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I31">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J31">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N31">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O31">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P31">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q31">
-        <v>474.6341878993472</v>
+        <v>548.8447375264967</v>
       </c>
       <c r="R31">
-        <v>4271.707691094124</v>
+        <v>4939.602637738471</v>
       </c>
       <c r="S31">
-        <v>0.01924364881472581</v>
+        <v>0.01870279158505491</v>
       </c>
       <c r="T31">
-        <v>0.02535039704230339</v>
+        <v>0.02409143759941864</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H32">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I32">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J32">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N32">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O32">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P32">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q32">
-        <v>1488.765241579357</v>
+        <v>1278.518931661132</v>
       </c>
       <c r="R32">
-        <v>8932.59144947614</v>
+        <v>7671.113589966792</v>
       </c>
       <c r="S32">
-        <v>0.06036074982992808</v>
+        <v>0.04356764578662067</v>
       </c>
       <c r="T32">
-        <v>0.0530103546956193</v>
+        <v>0.03741356702638517</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H33">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I33">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J33">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>10.766468</v>
       </c>
       <c r="O33">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P33">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q33">
-        <v>263.1288627793004</v>
+        <v>289.1537678104213</v>
       </c>
       <c r="R33">
-        <v>2368.159765013704</v>
+        <v>2602.383910293792</v>
       </c>
       <c r="S33">
-        <v>0.01066834112973091</v>
+        <v>0.00985339256374046</v>
       </c>
       <c r="T33">
-        <v>0.0140538151587167</v>
+        <v>0.01269235081898776</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H34">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I34">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J34">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N34">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O34">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P34">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q34">
-        <v>609.0511939749679</v>
+        <v>621.1575307742132</v>
       </c>
       <c r="R34">
-        <v>5481.460745774712</v>
+        <v>5590.417776967919</v>
       </c>
       <c r="S34">
-        <v>0.0246934746502694</v>
+        <v>0.02116696953661979</v>
       </c>
       <c r="T34">
-        <v>0.03252966174789874</v>
+        <v>0.02726559419973207</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H35">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I35">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J35">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N35">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O35">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P35">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q35">
-        <v>706.7351510301617</v>
+        <v>656.1755755180959</v>
       </c>
       <c r="R35">
-        <v>4240.41090618097</v>
+        <v>3937.053453108576</v>
       </c>
       <c r="S35">
-        <v>0.02865398953168275</v>
+        <v>0.02236026729057583</v>
       </c>
       <c r="T35">
-        <v>0.02516466665505098</v>
+        <v>0.01920180317066281</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H36">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I36">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J36">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N36">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O36">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P36">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q36">
-        <v>728.4497315924453</v>
+        <v>1363.811731341322</v>
       </c>
       <c r="R36">
-        <v>6556.047584332009</v>
+        <v>12274.3055820719</v>
       </c>
       <c r="S36">
-        <v>0.0295343891597607</v>
+        <v>0.04647413891127677</v>
       </c>
       <c r="T36">
-        <v>0.03890678419723088</v>
+        <v>0.05986426210632723</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H37">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I37">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J37">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N37">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O37">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P37">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q37">
-        <v>785.2531323676609</v>
+        <v>458.7097817168934</v>
       </c>
       <c r="R37">
-        <v>7067.278191308949</v>
+        <v>4128.38803545204</v>
       </c>
       <c r="S37">
-        <v>0.03183743585102049</v>
+        <v>0.01563129398696823</v>
       </c>
       <c r="T37">
-        <v>0.04194067598108647</v>
+        <v>0.02013498049062003</v>
       </c>
     </row>
   </sheetData>
